--- a/atnd.xlsx
+++ b/atnd.xlsx
@@ -7,25 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Atnd Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>shreyanshu</t>
+    <t>a</t>
   </si>
   <si>
-    <t>shubham</t>
-  </si>
-  <si>
-    <t>eshu</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -357,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,11 +375,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
